--- a/public/assets/xls/biblos-import.xlsx
+++ b/public/assets/xls/biblos-import.xlsx
@@ -110,7 +110,7 @@
     <t>alkemicar-michael-scott</t>
   </si>
   <si>
-    <t>Knjige, Antropozofija</t>
+    <t>Književnost, Biblioteka Vjeverica</t>
   </si>
   <si>
     <t>26.41</t>
